--- a/output/fit_clients/fit_round_218.xlsx
+++ b/output/fit_clients/fit_round_218.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2070200882.918846</v>
+        <v>1954746754.445884</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1107143160043828</v>
+        <v>0.100646354040484</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03374458234394959</v>
+        <v>0.02973349043579571</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1035100446.527075</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2579620985.987155</v>
+        <v>2239671172.683505</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1743892850186348</v>
+        <v>0.1682499035419865</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03064803341781779</v>
+        <v>0.04073615710758081</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1289810622.80302</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4383665494.025575</v>
+        <v>5034664567.465454</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1010827156123006</v>
+        <v>0.1149784845573669</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02728657399637917</v>
+        <v>0.02828087100727413</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>78</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2191832788.349034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2900060350.513689</v>
+        <v>3531194684.751454</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07774351058956873</v>
+        <v>0.09025582732367132</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04719020647533752</v>
+        <v>0.0447581423642098</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>82</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1450030251.679772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2768340956.805796</v>
+        <v>2087314668.544351</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09068062976822976</v>
+        <v>0.1309552399033115</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04207011450853732</v>
+        <v>0.03845871005591834</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>38</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1384170424.830664</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3024760194.251559</v>
+        <v>2611467339.527139</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09472095108840942</v>
+        <v>0.1017684598326113</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04772622461485376</v>
+        <v>0.04437160199846375</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>67</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1512380059.626887</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3250506408.665215</v>
+        <v>2964703561.592681</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1609547163836637</v>
+        <v>0.1468234471150712</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02279933564780023</v>
+        <v>0.03152850753819751</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>69</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1625253287.436766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1918680082.111451</v>
+        <v>2098339696.939897</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1464352377266315</v>
+        <v>0.1606568484335754</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02391485130742667</v>
+        <v>0.0330787390375199</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>959340078.9392964</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5294219716.673813</v>
+        <v>4363297276.99998</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1384796229837781</v>
+        <v>0.1952537379973102</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04914144452372925</v>
+        <v>0.03824638068602775</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>92</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2647109980.420265</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3143814487.175915</v>
+        <v>2976755192.146609</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1325196921271728</v>
+        <v>0.184551835673511</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04081363124741822</v>
+        <v>0.04008033229529701</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>90</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1571907196.548931</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2807629091.838068</v>
+        <v>3074824296.065389</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1202070216274198</v>
+        <v>0.180985161003763</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03837247157065348</v>
+        <v>0.05116060524696727</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>75</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1403814546.281234</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3515202722.832903</v>
+        <v>5234240197.822491</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0637628391131743</v>
+        <v>0.0957728104283849</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02020300726312265</v>
+        <v>0.02328102783260517</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>73</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1757601440.957985</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2691436919.635518</v>
+        <v>2952087894.840845</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1694137187329994</v>
+        <v>0.1831050871946806</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03460534387986244</v>
+        <v>0.03475874971959862</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>70</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1345718516.585886</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1524546444.249386</v>
+        <v>1773092147.152979</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07554929950077538</v>
+        <v>0.07283269601020893</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03429735602561693</v>
+        <v>0.03271416955690613</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>762273313.1766708</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2784721249.750501</v>
+        <v>2807316961.786545</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08968196626982734</v>
+        <v>0.07082199519696708</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04504613571562038</v>
+        <v>0.0318268120879429</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>36</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1392360630.246082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4616130367.062378</v>
+        <v>4995687681.130377</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1401751476918847</v>
+        <v>0.1104925131911272</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04535779425943502</v>
+        <v>0.04621236923808037</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>63</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2308065187.670714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3585721396.818957</v>
+        <v>2799474146.362817</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1472883853299911</v>
+        <v>0.1685019197765083</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03308911612062726</v>
+        <v>0.02232838178724409</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>71</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1792860686.223787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1315716014.822962</v>
+        <v>1120011403.989722</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1578031509954403</v>
+        <v>0.137763243063188</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01787246654662844</v>
+        <v>0.01923393035794802</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>657858113.5055679</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1880322048.739712</v>
+        <v>1701842050.143324</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09811145980022885</v>
+        <v>0.1389230187096366</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02249664146912812</v>
+        <v>0.02218208445240531</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>34</v>
-      </c>
-      <c r="J20" t="n">
-        <v>940161063.4435325</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2073666778.889806</v>
+        <v>2190088917.852894</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0810972560919318</v>
+        <v>0.08611192794460133</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03450570786160198</v>
+        <v>0.03108635015376452</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>17</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1036833418.347466</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3205043598.363339</v>
+        <v>3569294684.076181</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0878978528765188</v>
+        <v>0.1313696343406707</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03786150581860905</v>
+        <v>0.04981841340603762</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>61</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1602521848.421294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1221290771.14009</v>
+        <v>1067328766.551528</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1643629299987086</v>
+        <v>0.1795397239002541</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04038997806344476</v>
+        <v>0.03911763218873764</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>610645418.4492332</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3285199624.872412</v>
+        <v>2543946627.464954</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1463257801364503</v>
+        <v>0.1198168653858841</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03280747897028544</v>
+        <v>0.03449246020268096</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>64</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1642599828.461275</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>930374263.1196147</v>
+        <v>1380479078.712341</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07807941888263215</v>
+        <v>0.102872279270692</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02565009244891278</v>
+        <v>0.02779287836535334</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>465187211.538573</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1306505845.621468</v>
+        <v>1384497662.586477</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08220880706499038</v>
+        <v>0.1214581847510022</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02704905048376682</v>
+        <v>0.03808381788327243</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>653252969.9490845</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3758046120.925299</v>
+        <v>3350239672.699749</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1563869773390497</v>
+        <v>0.1252977330146095</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02675956305326543</v>
+        <v>0.02512626724335796</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>49</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1879023082.603764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3172524097.794615</v>
+        <v>2706159408.950664</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1103506748374561</v>
+        <v>0.13588710806197</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04623610402552773</v>
+        <v>0.03332621716964967</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>71</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1586262075.085588</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5581189197.836593</v>
+        <v>3796030983.208024</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1445527358616107</v>
+        <v>0.09821180825954404</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03870080157204853</v>
+        <v>0.0327618863191444</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>96</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2790594506.174553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1985211345.217695</v>
+        <v>1929937824.130209</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1120579756152728</v>
+        <v>0.1067307316192828</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03650446940999044</v>
+        <v>0.03415102407486109</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>992605708.3991064</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1053752662.899584</v>
+        <v>944981804.8510342</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0924706847709592</v>
+        <v>0.07987298378661035</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03394081912292923</v>
+        <v>0.03703953411544674</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>526876317.3271389</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1689883176.596357</v>
+        <v>1397708779.78636</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1062785750097413</v>
+        <v>0.1177538364441646</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03805102357107908</v>
+        <v>0.02692816390286841</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>844941695.9782314</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2285937351.054079</v>
+        <v>2914100263.085136</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1306329591896337</v>
+        <v>0.2065172909089044</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04963328477018217</v>
+        <v>0.04740151921324352</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>64</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1142968731.952447</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1240324893.644416</v>
+        <v>1021253179.313359</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1146902215594925</v>
+        <v>0.104998614670846</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01941185026192753</v>
+        <v>0.01771285048639615</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>620162445.2915431</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>830719383.982022</v>
+        <v>1217049259.854831</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0931262668636777</v>
+        <v>0.1033752710047467</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03134989318219056</v>
+        <v>0.03519886182642177</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>415359747.6798217</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2149843354.398038</v>
+        <v>2558987490.008989</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1328423903639016</v>
+        <v>0.1360440307129607</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01956190909630543</v>
+        <v>0.02101173504721061</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>55</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1074921727.225842</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2250413532.791422</v>
+        <v>1813872842.498997</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07914568424981332</v>
+        <v>0.09276363491138649</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03110044798704262</v>
+        <v>0.02936614711918898</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>57</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1125206828.093817</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1597981375.924642</v>
+        <v>1932875981.985686</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1178832138120413</v>
+        <v>0.09764717500668471</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03478936146609507</v>
+        <v>0.02919271234288975</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>798990723.3635182</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2130894679.924108</v>
+        <v>1486636271.186852</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1607546840981656</v>
+        <v>0.122441724937904</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02010384944283913</v>
+        <v>0.03266031966048476</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1065447314.640515</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1196174295.2735</v>
+        <v>1583914891.034465</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1572639132872814</v>
+        <v>0.142190266758637</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05593242619811713</v>
+        <v>0.05742582758617035</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>598087189.8807356</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2526841900.167431</v>
+        <v>2687401234.674394</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1280738121569692</v>
+        <v>0.138578686665052</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04417573722716102</v>
+        <v>0.03714872253103479</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>53</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1263420972.760019</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3610653136.264687</v>
+        <v>3176912474.821388</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08589117164947507</v>
+        <v>0.1212520425448042</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03812478508764351</v>
+        <v>0.04579817529214026</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>79</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1805326570.585227</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2117236864.535585</v>
+        <v>2263712751.889226</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1514246805506264</v>
+        <v>0.1855249286585841</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01640405270741108</v>
+        <v>0.01678989804394142</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>76</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1058618519.40275</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1836786273.174011</v>
+        <v>1693359612.5402</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07558747316622494</v>
+        <v>0.1000316264817987</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03060178459425017</v>
+        <v>0.03628623439806434</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>918393210.3433118</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1672923968.159906</v>
+        <v>1904622266.65467</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1215508715174296</v>
+        <v>0.1289611815047438</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04278848102024072</v>
+        <v>0.05141016542152985</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>836461942.0002897</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5665526723.506907</v>
+        <v>5106430520.331146</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1136912412186988</v>
+        <v>0.1357236070384701</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03834208601657403</v>
+        <v>0.04485486235378965</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>77</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2832763426.625442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4610806058.733065</v>
+        <v>5033632665.702411</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1313187552727521</v>
+        <v>0.1858680609302567</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05562757636883103</v>
+        <v>0.04370101568544204</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>58</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2305403063.098374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4229743149.166679</v>
+        <v>3990138145.434142</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07953166152952665</v>
+        <v>0.09735295203052721</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02933254701941854</v>
+        <v>0.02538734217413336</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>75</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2114871595.608795</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1896354422.605841</v>
+        <v>1253087009.003336</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1809455291688476</v>
+        <v>0.1454864292062547</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04199970867146235</v>
+        <v>0.03988580666414671</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>948177181.6976584</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3603507953.089781</v>
+        <v>2652163303.431573</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1479314461138567</v>
+        <v>0.1484019095131719</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03381748596434246</v>
+        <v>0.04563413240934161</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>74</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1801753993.418096</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1040003059.214628</v>
+        <v>976224000.5619501</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1940372024280339</v>
+        <v>0.1643180494707953</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04275548315748549</v>
+        <v>0.04546923014076147</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>520001607.077084</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5183161742.912654</v>
+        <v>4646912062.147814</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1167857477129613</v>
+        <v>0.1035404878329496</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04147090574780703</v>
+        <v>0.05490095721977931</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>90</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2591580858.279088</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2856798329.85969</v>
+        <v>3003760875.465153</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1873873053291849</v>
+        <v>0.1501478485973132</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03403496806141371</v>
+        <v>0.02197280881374099</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>62</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1428399207.202847</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4187985575.272232</v>
+        <v>3533057926.757236</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1363533523736272</v>
+        <v>0.1317539999179966</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03554796848746852</v>
+        <v>0.04390589803694011</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>71</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2093992866.463281</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4815311916.143374</v>
+        <v>4181006757.502229</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2211400312167772</v>
+        <v>0.1671523119745051</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02819359947494422</v>
+        <v>0.02724986104740215</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>59</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2407655968.935432</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1291182081.930555</v>
+        <v>1260381861.298103</v>
       </c>
       <c r="F56" t="n">
-        <v>0.111869474442834</v>
+        <v>0.1327820039099675</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04642946126266898</v>
+        <v>0.05469576267990497</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>645591114.1583692</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4201827192.937706</v>
+        <v>4443288321.697173</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1486879047051167</v>
+        <v>0.1795557177321014</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0265210599778964</v>
+        <v>0.02694429641738112</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>70</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2100913701.772962</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1423550844.0124</v>
+        <v>1694574666.482537</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2031570555097884</v>
+        <v>0.1306794326215457</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03858983484214575</v>
+        <v>0.02874832429646332</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>711775460.0940485</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4455933476.906091</v>
+        <v>5061308105.066512</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1248866491957104</v>
+        <v>0.09824263909464355</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03922626411598296</v>
+        <v>0.04688815625818197</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>59</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2227966692.390729</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3148291863.533507</v>
+        <v>3287498745.23207</v>
       </c>
       <c r="F60" t="n">
-        <v>0.178202678819288</v>
+        <v>0.1409115808033309</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02839393028079948</v>
+        <v>0.03144445350951489</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>71</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1574146017.654713</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2546883101.841179</v>
+        <v>2942031650.720473</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1321599056066778</v>
+        <v>0.1431794709828758</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03135306576592292</v>
+        <v>0.03158377148104442</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>76</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1273441574.104734</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1838340721.498271</v>
+        <v>2012266798.076999</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1652910232865913</v>
+        <v>0.140492012644077</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04520372061882694</v>
+        <v>0.04391772346569944</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>919170394.5189275</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4250431597.169002</v>
+        <v>4499209524.498789</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09176199204464157</v>
+        <v>0.09066141645851439</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04450192725350332</v>
+        <v>0.03877031043377228</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>63</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2125215849.77207</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5059565113.012764</v>
+        <v>5183888156.764653</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1304052767146633</v>
+        <v>0.1222216042998826</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02448243322364954</v>
+        <v>0.02458572414322351</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>68</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2529782666.880219</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4501932527.478251</v>
+        <v>5039388733.029427</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1559417297325162</v>
+        <v>0.11355129316122</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02770083593030328</v>
+        <v>0.02654804233009447</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>78</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2250966252.358692</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5025291482.747415</v>
+        <v>5691378262.982555</v>
       </c>
       <c r="F66" t="n">
-        <v>0.151460134541955</v>
+        <v>0.1121217639028086</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03348091530765014</v>
+        <v>0.04023610190016297</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>63</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2512645769.87622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3006141898.485036</v>
+        <v>2765683790.208158</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09165399029700426</v>
+        <v>0.09217651978317455</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04815921363002962</v>
+        <v>0.04375090861321614</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>71</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1503070967.006482</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4334423725.69047</v>
+        <v>5480435535.445657</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1098814630441493</v>
+        <v>0.1576216368638652</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04461871699455122</v>
+        <v>0.04230223726258974</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>71</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2167211878.885163</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1781989046.415407</v>
+        <v>2075365840.778671</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1401504662572713</v>
+        <v>0.1533209208959102</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04609813130800772</v>
+        <v>0.04574740002655523</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>890994499.9355187</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3561429081.949967</v>
+        <v>3000785085.993126</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08879971094487575</v>
+        <v>0.07166472239568834</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03677846997870764</v>
+        <v>0.03496723477468285</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>62</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1780714554.468542</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5157400870.041726</v>
+        <v>4663722788.399345</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1655963120208847</v>
+        <v>0.1307170963464301</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02257242052770563</v>
+        <v>0.02337080081716306</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>80</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2578700552.46505</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2024972173.078492</v>
+        <v>2140950693.688758</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1035157955632698</v>
+        <v>0.06926335096943895</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03350563851487232</v>
+        <v>0.04260715301005208</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1012486028.85214</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2243449203.619071</v>
+        <v>3117627844.550214</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1114483480225746</v>
+        <v>0.108244328215373</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03918357749323644</v>
+        <v>0.03569915061763417</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>84</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1121724667.066871</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3650884417.271356</v>
+        <v>3588683936.662146</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1126961832723522</v>
+        <v>0.1677813135136228</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02773996033456646</v>
+        <v>0.0319704237355635</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>74</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1825442217.76935</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2450663035.396319</v>
+        <v>2093688616.562325</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1100430621731439</v>
+        <v>0.1405044100860651</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03188438403160058</v>
+        <v>0.03774554240733471</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1225331439.617444</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4332864880.354402</v>
+        <v>5161228161.528481</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1008856979533414</v>
+        <v>0.08861044310459117</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02281676947806484</v>
+        <v>0.02827604450210234</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>51</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2166432438.861278</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1861972585.085658</v>
+        <v>1678570033.998228</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1545043371368128</v>
+        <v>0.1843928315751029</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02729481050800724</v>
+        <v>0.02227182650832701</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>930986333.6321124</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4654624385.822363</v>
+        <v>3660578369.840774</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1354257562916393</v>
+        <v>0.1320476277038626</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03946875440220329</v>
+        <v>0.04056689742789148</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>76</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2327312111.788552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1589794103.147064</v>
+        <v>1655150650.904924</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1622513916807194</v>
+        <v>0.1117654772280194</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03354401586743165</v>
+        <v>0.03387366594332864</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>794897101.4684746</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5098765398.675702</v>
+        <v>4893891276.581944</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07990726355667237</v>
+        <v>0.1043120186229258</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02575295381873885</v>
+        <v>0.03373686157325025</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>45</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2549382753.452545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3923696405.97458</v>
+        <v>3809474869.743833</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09689489657485052</v>
+        <v>0.0943315716116602</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03310331189346274</v>
+        <v>0.02870317724675531</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>49</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1961848163.347498</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5311857784.132024</v>
+        <v>5462439013.150338</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1561251658560044</v>
+        <v>0.1851220754444984</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02384890688134636</v>
+        <v>0.02947609954965088</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>77</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2655928858.609453</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1677565741.260993</v>
+        <v>1554758463.855059</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1389367115646216</v>
+        <v>0.1253648660819407</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03153531561093162</v>
+        <v>0.04295249358955981</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>838782815.8146219</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1889939943.004013</v>
+        <v>1913556520.760353</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09865193295287629</v>
+        <v>0.1063901453878525</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04684196365602635</v>
+        <v>0.04681307677612138</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>944969992.5901132</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3282226705.035719</v>
+        <v>3117160060.506529</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1410482958777298</v>
+        <v>0.1778729018529111</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04067480105916871</v>
+        <v>0.04244111460719792</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>82</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1641113443.798654</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2505851924.704281</v>
+        <v>2517427877.188068</v>
       </c>
       <c r="F86" t="n">
-        <v>0.148247766256136</v>
+        <v>0.1686437237938651</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01966142883726437</v>
+        <v>0.01928018345718593</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>28</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1252926060.318942</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1352639166.985136</v>
+        <v>1142429416.888748</v>
       </c>
       <c r="F87" t="n">
-        <v>0.125198431657561</v>
+        <v>0.1827840487880079</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03028444979458714</v>
+        <v>0.0275129935929612</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>676319678.1977329</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3317738335.46033</v>
+        <v>3678317998.773907</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1553840836407064</v>
+        <v>0.1628207727352499</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02651328749637621</v>
+        <v>0.0259434674537579</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>86</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1658869229.569427</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3037800133.604653</v>
+        <v>2149523092.888853</v>
       </c>
       <c r="F89" t="n">
-        <v>0.124294850326925</v>
+        <v>0.09714224292829714</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03997915356715951</v>
+        <v>0.03847353859086441</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>75</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1518900102.117577</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1803355709.013495</v>
+        <v>2011686365.306871</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09094545504876089</v>
+        <v>0.1241108495243424</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03558947721991385</v>
+        <v>0.03771732320842128</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>901677888.7283201</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1433664709.852938</v>
+        <v>1701900884.535196</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1301303441274136</v>
+        <v>0.1415868424029279</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04305299200344886</v>
+        <v>0.03783276496093863</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>716832402.6913409</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2107635998.643627</v>
+        <v>2947734095.162056</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09936795800871948</v>
+        <v>0.0794223244815689</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04522980733234046</v>
+        <v>0.03163283408302427</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>55</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1053817953.597919</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3891552997.04402</v>
+        <v>3063128131.73878</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1319962858138434</v>
+        <v>0.1074964346010652</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04899061601037356</v>
+        <v>0.04966388614589133</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>68</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1945776506.15362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2038651400.718338</v>
+        <v>1604671181.789085</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1587088909118242</v>
+        <v>0.1668557203431126</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03297195505011503</v>
+        <v>0.03193162546521553</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1019325703.73598</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3278651284.933233</v>
+        <v>3196050215.703481</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1306741395395724</v>
+        <v>0.09677735770231317</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04487266567244116</v>
+        <v>0.04717396269303305</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>52</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1639325621.891685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2183810980.912203</v>
+        <v>1452243766.426796</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09322867571658028</v>
+        <v>0.0913690099781114</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04725818282018289</v>
+        <v>0.02960456134275512</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1091905457.795727</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4834211138.65853</v>
+        <v>3896528471.241631</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1168007794606704</v>
+        <v>0.1101749410008684</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02550581931570455</v>
+        <v>0.02741379898212326</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>71</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2417105692.780615</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2633527839.099206</v>
+        <v>3728927981.323257</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09750500108225042</v>
+        <v>0.08275231734295002</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02061899508818482</v>
+        <v>0.02235825541278482</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>57</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1316763879.364499</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3146891495.134394</v>
+        <v>2411409158.787424</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1383459269464169</v>
+        <v>0.1140770309327855</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0301861737781443</v>
+        <v>0.03035643027242509</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>68</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1573445744.150299</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3703619555.45116</v>
+        <v>4610638511.997261</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1606586580838627</v>
+        <v>0.1087136126816335</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01825088028365971</v>
+        <v>0.01800628113718539</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>68</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1851809824.71377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2288276227.957465</v>
+        <v>3270321676.682718</v>
       </c>
       <c r="F101" t="n">
-        <v>0.16228790121435</v>
+        <v>0.1681066845089788</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04109557694758933</v>
+        <v>0.05554849877617858</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>89</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1144138108.967885</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_218.xlsx
+++ b/output/fit_clients/fit_round_218.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1954746754.445884</v>
+        <v>1851771562.583294</v>
       </c>
       <c r="F2" t="n">
-        <v>0.100646354040484</v>
+        <v>0.06934266015576762</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02973349043579571</v>
+        <v>0.03205896950502488</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2239671172.683505</v>
+        <v>1690309358.37321</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1682499035419865</v>
+        <v>0.1344347572181312</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04073615710758081</v>
+        <v>0.03257362382700511</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5034664567.465454</v>
+        <v>4950150539.678434</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1149784845573669</v>
+        <v>0.1093455770829693</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02828087100727413</v>
+        <v>0.02576394645151648</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3531194684.751454</v>
+        <v>2977781313.971077</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09025582732367132</v>
+        <v>0.09631580919608881</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0447581423642098</v>
+        <v>0.04660864983022502</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2087314668.544351</v>
+        <v>2043963137.865399</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1309552399033115</v>
+        <v>0.1244549335594202</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03845871005591834</v>
+        <v>0.04123874914471549</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2611467339.527139</v>
+        <v>2717641004.90719</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1017684598326113</v>
+        <v>0.08954156127952183</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04437160199846375</v>
+        <v>0.04822794923119389</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2964703561.592681</v>
+        <v>3804110801.15004</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1468234471150712</v>
+        <v>0.1814063825775638</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03152850753819751</v>
+        <v>0.02962872011709365</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,16 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2098339696.939897</v>
+        <v>1616237257.355324</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1606568484335754</v>
+        <v>0.1491130593276164</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0330787390375199</v>
+        <v>0.03268176857321505</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4363297276.99998</v>
+        <v>5375652995.030818</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1952537379973102</v>
+        <v>0.1329959686303162</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03824638068602775</v>
+        <v>0.0495845410262824</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2976755192.146609</v>
+        <v>4111357550.48753</v>
       </c>
       <c r="F11" t="n">
-        <v>0.184551835673511</v>
+        <v>0.1733381050635357</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04008033229529701</v>
+        <v>0.04940095494630551</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,16 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3074824296.065389</v>
+        <v>3315705914.544703</v>
       </c>
       <c r="F12" t="n">
-        <v>0.180985161003763</v>
+        <v>0.1736564833361876</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05116060524696727</v>
+        <v>0.04320690047292154</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5234240197.822491</v>
+        <v>3460690055.983458</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0957728104283849</v>
+        <v>0.06192205221088594</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02328102783260517</v>
+        <v>0.03138077934858358</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2952087894.840845</v>
+        <v>3883976959.169491</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1831050871946806</v>
+        <v>0.1225266172938551</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03475874971959862</v>
+        <v>0.04239218460213629</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1773092147.152979</v>
+        <v>1799121197.542443</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07283269601020893</v>
+        <v>0.07462530804252698</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03271416955690613</v>
+        <v>0.03301253727762391</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2807316961.786545</v>
+        <v>2285653962.829399</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07082199519696708</v>
+        <v>0.1134236857109624</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0318268120879429</v>
+        <v>0.04207367063756073</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4995687681.130377</v>
+        <v>3934960760.67232</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1104925131911272</v>
+        <v>0.1531426321466245</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04621236923808037</v>
+        <v>0.0429948549442583</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2799474146.362817</v>
+        <v>3030275954.93765</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1685019197765083</v>
+        <v>0.165431246965331</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02232838178724409</v>
+        <v>0.03403616921373662</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1120011403.989722</v>
+        <v>1121724554.01636</v>
       </c>
       <c r="F19" t="n">
-        <v>0.137763243063188</v>
+        <v>0.1885426714493234</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01923393035794802</v>
+        <v>0.01829623799726346</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1701842050.143324</v>
+        <v>2603914250.802059</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1389230187096366</v>
+        <v>0.149184659057946</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02218208445240531</v>
+        <v>0.02271784377442126</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2190088917.852894</v>
+        <v>2543389937.34991</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08611192794460133</v>
+        <v>0.06953318734341743</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03108635015376452</v>
+        <v>0.03429281893668532</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3569294684.076181</v>
+        <v>3084932305.844774</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1313696343406707</v>
+        <v>0.09579749959838667</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04981841340603762</v>
+        <v>0.05330298104382688</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1067328766.551528</v>
+        <v>1506749529.156195</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1795397239002541</v>
+        <v>0.122271169521357</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03911763218873764</v>
+        <v>0.0420177778833447</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2543946627.464954</v>
+        <v>3307823953.248324</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1198168653858841</v>
+        <v>0.1217996950422289</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03449246020268096</v>
+        <v>0.03749582440814502</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1380479078.712341</v>
+        <v>976182297.6495751</v>
       </c>
       <c r="F25" t="n">
-        <v>0.102872279270692</v>
+        <v>0.08116685451194149</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02779287836535334</v>
+        <v>0.03052861928676624</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1384497662.586477</v>
+        <v>1372006664.509306</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1214581847510022</v>
+        <v>0.1112536080310895</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03808381788327243</v>
+        <v>0.03240629288277199</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3350239672.699749</v>
+        <v>3674368620.842218</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1252977330146095</v>
+        <v>0.1031218117129661</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02512626724335796</v>
+        <v>0.01926189718697019</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2706159408.950664</v>
+        <v>3665630395.468408</v>
       </c>
       <c r="F28" t="n">
-        <v>0.13588710806197</v>
+        <v>0.1376276115790363</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03332621716964967</v>
+        <v>0.04892919269418306</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3796030983.208024</v>
+        <v>5330379559.488523</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09821180825954404</v>
+        <v>0.09322558031279995</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0327618863191444</v>
+        <v>0.0280794147246929</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1929937824.130209</v>
+        <v>1520697003.92097</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1067307316192828</v>
+        <v>0.1061022040753242</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03415102407486109</v>
+        <v>0.02709189613929535</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>944981804.8510342</v>
+        <v>1131959049.532604</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07987298378661035</v>
+        <v>0.1053610151209657</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03703953411544674</v>
+        <v>0.03898918962273899</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1397708779.78636</v>
+        <v>1335076383.032628</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1177538364441646</v>
+        <v>0.09023521060273518</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02692816390286841</v>
+        <v>0.03514856759122027</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,16 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2914100263.085136</v>
+        <v>2858709801.388745</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2065172909089044</v>
+        <v>0.1922167395404343</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04740151921324352</v>
+        <v>0.04354621300451552</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1021253179.313359</v>
+        <v>1296361958.77562</v>
       </c>
       <c r="F34" t="n">
-        <v>0.104998614670846</v>
+        <v>0.112665942856618</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01771285048639615</v>
+        <v>0.0258896115648484</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1217049259.854831</v>
+        <v>977226347.9842087</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1033752710047467</v>
+        <v>0.09179577755750798</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03519886182642177</v>
+        <v>0.02855027497536229</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2558987490.008989</v>
+        <v>2236170004.113914</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1360440307129607</v>
+        <v>0.1313350425792347</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02101173504721061</v>
+        <v>0.02379242816902139</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1813872842.498997</v>
+        <v>2530338545.502839</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09276363491138649</v>
+        <v>0.08625972748532526</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02936614711918898</v>
+        <v>0.02874145899442724</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1932875981.985686</v>
+        <v>1782780482.007204</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09764717500668471</v>
+        <v>0.1175565433877077</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02919271234288975</v>
+        <v>0.03536059101068686</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1486636271.186852</v>
+        <v>1933773927.063375</v>
       </c>
       <c r="F39" t="n">
-        <v>0.122441724937904</v>
+        <v>0.1245668136920389</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03266031966048476</v>
+        <v>0.02235660594262539</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1583914891.034465</v>
+        <v>1242858405.11536</v>
       </c>
       <c r="F40" t="n">
-        <v>0.142190266758637</v>
+        <v>0.1479710741277125</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05742582758617035</v>
+        <v>0.05430998055803569</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2687401234.674394</v>
+        <v>2349135866.631205</v>
       </c>
       <c r="F41" t="n">
-        <v>0.138578686665052</v>
+        <v>0.1123271255253935</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03714872253103479</v>
+        <v>0.04425896923894845</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3176912474.821388</v>
+        <v>3868973424.34796</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1212520425448042</v>
+        <v>0.1199836915188592</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04579817529214026</v>
+        <v>0.03596891911277435</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2263712751.889226</v>
+        <v>2368868372.251663</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1855249286585841</v>
+        <v>0.1595756780723715</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01678989804394142</v>
+        <v>0.02452414975456986</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1693359612.5402</v>
+        <v>2037473422.881798</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1000316264817987</v>
+        <v>0.09528021612439559</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03628623439806434</v>
+        <v>0.03335578727542091</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1904622266.65467</v>
+        <v>1850377570.393258</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1289611815047438</v>
+        <v>0.12384171784373</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05141016542152985</v>
+        <v>0.03489055807232583</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5106430520.331146</v>
+        <v>3642513709.163893</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1357236070384701</v>
+        <v>0.1605210273536396</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04485486235378965</v>
+        <v>0.0435385142535516</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5033632665.702411</v>
+        <v>3690118469.926327</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1858680609302567</v>
+        <v>0.1478044836530732</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04370101568544204</v>
+        <v>0.041192937803366</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3990138145.434142</v>
+        <v>4107363113.754759</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09735295203052721</v>
+        <v>0.08448422162788309</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02538734217413336</v>
+        <v>0.02967967865171307</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1253087009.003336</v>
+        <v>1820113427.671748</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1454864292062547</v>
+        <v>0.1859353618469751</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03988580666414671</v>
+        <v>0.04097203228085605</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2652163303.431573</v>
+        <v>3888865355.071373</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1484019095131719</v>
+        <v>0.1303484509947368</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04563413240934161</v>
+        <v>0.03869917485180031</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>976224000.5619501</v>
+        <v>1377823432.06196</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1643180494707953</v>
+        <v>0.1885191326980812</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04546923014076147</v>
+        <v>0.03327789204511339</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4646912062.147814</v>
+        <v>5257343145.593258</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1035404878329496</v>
+        <v>0.111117956593793</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05490095721977931</v>
+        <v>0.05532068041174001</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3003760875.465153</v>
+        <v>2598280318.719785</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1501478485973132</v>
+        <v>0.1749666181555928</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02197280881374099</v>
+        <v>0.03050588813442164</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3533057926.757236</v>
+        <v>4303098949.111687</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1317539999179966</v>
+        <v>0.1070394258208682</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04390589803694011</v>
+        <v>0.04496402037493036</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4181006757.502229</v>
+        <v>3926722243.481421</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1671523119745051</v>
+        <v>0.2119098291134008</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02724986104740215</v>
+        <v>0.02394128109793907</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1260381861.298103</v>
+        <v>1734127422.601791</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1327820039099675</v>
+        <v>0.1381638682549589</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05469576267990497</v>
+        <v>0.04896318670864715</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4443288321.697173</v>
+        <v>3030039358.430894</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1795557177321014</v>
+        <v>0.1117022443229957</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02694429641738112</v>
+        <v>0.02577170532707086</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1694574666.482537</v>
+        <v>1446234899.807268</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1306794326215457</v>
+        <v>0.1523812384540429</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02874832429646332</v>
+        <v>0.03979246987110202</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5061308105.066512</v>
+        <v>3436445079.014428</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09824263909464355</v>
+        <v>0.08731675701584081</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04688815625818197</v>
+        <v>0.0476618746460902</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,16 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3287498745.23207</v>
+        <v>2813979609.276036</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1409115808033309</v>
+        <v>0.1647858160576136</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03144445350951489</v>
+        <v>0.02100685888543522</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2942031650.720473</v>
+        <v>3263004741.136213</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1431794709828758</v>
+        <v>0.1586030606956355</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03158377148104442</v>
+        <v>0.02821218661005829</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2012266798.076999</v>
+        <v>1396813207.139451</v>
       </c>
       <c r="F62" t="n">
-        <v>0.140492012644077</v>
+        <v>0.1684778122668685</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04391772346569944</v>
+        <v>0.0466453039298076</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4499209524.498789</v>
+        <v>5251175149.445572</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09066141645851439</v>
+        <v>0.07140155671756809</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03877031043377228</v>
+        <v>0.04159665827266552</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5183888156.764653</v>
+        <v>4736551746.47202</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1222216042998826</v>
+        <v>0.1283973956398376</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02458572414322351</v>
+        <v>0.02553444926827603</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5039388733.029427</v>
+        <v>4277104057.360702</v>
       </c>
       <c r="F65" t="n">
-        <v>0.11355129316122</v>
+        <v>0.1546060243576591</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02654804233009447</v>
+        <v>0.02252207440692728</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5691378262.982555</v>
+        <v>5291375987.390259</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1121217639028086</v>
+        <v>0.1540846702198792</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04023610190016297</v>
+        <v>0.04113090483887284</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2765683790.208158</v>
+        <v>2773536111.492911</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09217651978317455</v>
+        <v>0.08262305809952022</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04375090861321614</v>
+        <v>0.04877372620360944</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5480435535.445657</v>
+        <v>3932876956.26923</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1576216368638652</v>
+        <v>0.1253593317545562</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04230223726258974</v>
+        <v>0.04060371655184621</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2075365840.778671</v>
+        <v>2160009571.529127</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1533209208959102</v>
+        <v>0.1334232863827527</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04574740002655523</v>
+        <v>0.04165566386434148</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3000785085.993126</v>
+        <v>3251828083.94102</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07166472239568834</v>
+        <v>0.09700386894364774</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03496723477468285</v>
+        <v>0.04242387646706331</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4663722788.399345</v>
+        <v>4414153452.640269</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1307170963464301</v>
+        <v>0.1555729338125965</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02337080081716306</v>
+        <v>0.03000523138954173</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2140950693.688758</v>
+        <v>1781107728.914717</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06926335096943895</v>
+        <v>0.08240066877629891</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04260715301005208</v>
+        <v>0.03228274603315968</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3117627844.550214</v>
+        <v>2880066701.748721</v>
       </c>
       <c r="F73" t="n">
-        <v>0.108244328215373</v>
+        <v>0.1043038014268239</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03569915061763417</v>
+        <v>0.03569951052579155</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3588683936.662146</v>
+        <v>2578769640.337469</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1677813135136228</v>
+        <v>0.1223637169088031</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0319704237355635</v>
+        <v>0.02719157825305096</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2093688616.562325</v>
+        <v>1836164840.229005</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1405044100860651</v>
+        <v>0.1105933977576704</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03774554240733471</v>
+        <v>0.03352209071033392</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5161228161.528481</v>
+        <v>5336423008.661188</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08861044310459117</v>
+        <v>0.07762807432638569</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02827604450210234</v>
+        <v>0.03042398224118971</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1678570033.998228</v>
+        <v>2031406428.847556</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1843928315751029</v>
+        <v>0.1615078823377379</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02227182650832701</v>
+        <v>0.02475222554815582</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3660578369.840774</v>
+        <v>3925038736.632486</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1320476277038626</v>
+        <v>0.09565624221305691</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04056689742789148</v>
+        <v>0.05130643619400312</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1655150650.904924</v>
+        <v>1571921938.118647</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1117654772280194</v>
+        <v>0.1630194365847089</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03387366594332864</v>
+        <v>0.03735139340761939</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4893891276.581944</v>
+        <v>5618148070.97712</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1043120186229258</v>
+        <v>0.08329238934785439</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03373686157325025</v>
+        <v>0.03525447544224992</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3809474869.743833</v>
+        <v>5166278306.419083</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0943315716116602</v>
+        <v>0.1358830459172479</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02870317724675531</v>
+        <v>0.02666007899864184</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5462439013.150338</v>
+        <v>4438578266.194613</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1851220754444984</v>
+        <v>0.2071942869397209</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02947609954965088</v>
+        <v>0.01921524227177456</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1554758463.855059</v>
+        <v>2276458521.113713</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1253648660819407</v>
+        <v>0.1355989918931384</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04295249358955981</v>
+        <v>0.03693111355022013</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1913556520.760353</v>
+        <v>2566673807.304679</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1063901453878525</v>
+        <v>0.09848727051820573</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04681307677612138</v>
+        <v>0.05084592308301843</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,16 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3117160060.506529</v>
+        <v>3012111729.099172</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1778729018529111</v>
+        <v>0.13644792010141</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04244111460719792</v>
+        <v>0.04343983906192404</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2517427877.188068</v>
+        <v>2476739844.049772</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1686437237938651</v>
+        <v>0.1196415172569799</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01928018345718593</v>
+        <v>0.01679935982282073</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1142429416.888748</v>
+        <v>1446208878.037724</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1827840487880079</v>
+        <v>0.1361684071040311</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0275129935929612</v>
+        <v>0.03946892192351913</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3678317998.773907</v>
+        <v>3111967476.105552</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1628207727352499</v>
+        <v>0.1625464350273374</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0259434674537579</v>
+        <v>0.03328550243896178</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2149523092.888853</v>
+        <v>3181997282.148169</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09714224292829714</v>
+        <v>0.1126563127992694</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03847353859086441</v>
+        <v>0.03369381480110414</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2011686365.306871</v>
+        <v>1627507875.962681</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1241108495243424</v>
+        <v>0.0968968990842551</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03771732320842128</v>
+        <v>0.05288823017974876</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1701900884.535196</v>
+        <v>1947232876.636108</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1415868424029279</v>
+        <v>0.1335130670995642</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03783276496093863</v>
+        <v>0.05883262363062944</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2947734095.162056</v>
+        <v>2308531075.741035</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0794223244815689</v>
+        <v>0.07448758769196925</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03163283408302427</v>
+        <v>0.03652350771316903</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3063128131.73878</v>
+        <v>5009747647.942678</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1074964346010652</v>
+        <v>0.1399989466835516</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04966388614589133</v>
+        <v>0.04951740714450484</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1604671181.789085</v>
+        <v>2460233137.262817</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1668557203431126</v>
+        <v>0.158028734025892</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03193162546521553</v>
+        <v>0.03415797228495426</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3196050215.703481</v>
+        <v>3139122295.229239</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09677735770231317</v>
+        <v>0.105153117135083</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04717396269303305</v>
+        <v>0.03333372258000245</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1452243766.426796</v>
+        <v>2131848724.245941</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0913690099781114</v>
+        <v>0.09200191161150167</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02960456134275512</v>
+        <v>0.03526323995698843</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3896528471.241631</v>
+        <v>3948954041.110113</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1101749410008684</v>
+        <v>0.1293730665949988</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02741379898212326</v>
+        <v>0.01828774066280617</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3728927981.323257</v>
+        <v>2760747533.996621</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08275231734295002</v>
+        <v>0.124919544654229</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02235825541278482</v>
+        <v>0.02065578590968448</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2411409158.787424</v>
+        <v>2298735451.679694</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1140770309327855</v>
+        <v>0.1312935287370875</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03035643027242509</v>
+        <v>0.02823261520567564</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4610638511.997261</v>
+        <v>4474767047.497366</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1087136126816335</v>
+        <v>0.1292405166272945</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01800628113718539</v>
+        <v>0.02119657964633232</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3270321676.682718</v>
+        <v>3354032073.657456</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1681066845089788</v>
+        <v>0.1489610443908219</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05554849877617858</v>
+        <v>0.05594384743892214</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_218.xlsx
+++ b/output/fit_clients/fit_round_218.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1851771562.583294</v>
+        <v>2014162019.674024</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06934266015576762</v>
+        <v>0.07605267641469578</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03205896950502488</v>
+        <v>0.02795628624569576</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1690309358.37321</v>
+        <v>2341106819.13905</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1344347572181312</v>
+        <v>0.1140153266916145</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03257362382700511</v>
+        <v>0.04934463430300845</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4950150539.678434</v>
+        <v>4596500655.618756</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1093455770829693</v>
+        <v>0.1360303556616972</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02576394645151648</v>
+        <v>0.03614573245919349</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>119</v>
+      </c>
+      <c r="J4" t="n">
+        <v>217</v>
+      </c>
+      <c r="K4" t="n">
+        <v>111.3565347004711</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2977781313.971077</v>
+        <v>3097552807.36252</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09631580919608881</v>
+        <v>0.101867411770852</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04660864983022502</v>
+        <v>0.0404905855819105</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>89</v>
+      </c>
+      <c r="J5" t="n">
+        <v>216</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2043963137.865399</v>
+        <v>2870135121.858611</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1244549335594202</v>
+        <v>0.101015050017992</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04123874914471549</v>
+        <v>0.04929889292615398</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2717641004.90719</v>
+        <v>2484472549.328792</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08954156127952183</v>
+        <v>0.06449230410270732</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04822794923119389</v>
+        <v>0.03838115736047422</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3804110801.15004</v>
+        <v>2476795933.720315</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1814063825775638</v>
+        <v>0.1638385658440269</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02962872011709365</v>
+        <v>0.02076707133602247</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>61</v>
+      </c>
+      <c r="J8" t="n">
+        <v>214</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1616237257.355324</v>
+        <v>2109347401.625402</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1491130593276164</v>
+        <v>0.1921399453181953</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03268176857321505</v>
+        <v>0.02558816692433499</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5375652995.030818</v>
+        <v>4952032966.506845</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1329959686303162</v>
+        <v>0.2094619874822847</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0495845410262824</v>
+        <v>0.03348464285965824</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>199</v>
+      </c>
+      <c r="J10" t="n">
+        <v>218</v>
+      </c>
+      <c r="K10" t="n">
+        <v>121.549754218446</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4111357550.48753</v>
+        <v>3808934052.453475</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1733381050635357</v>
+        <v>0.154118249261156</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04940095494630551</v>
+        <v>0.03350969714778227</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>91</v>
+      </c>
+      <c r="J11" t="n">
+        <v>218</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +855,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3315705914.544703</v>
+        <v>2958606005.404606</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1736564833361876</v>
+        <v>0.1736355691413162</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04320690047292154</v>
+        <v>0.04887695026283392</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3460690055.983458</v>
+        <v>4225244011.662025</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06192205221088594</v>
+        <v>0.0770962880653802</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03138077934858358</v>
+        <v>0.0261636893229631</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>110</v>
+      </c>
+      <c r="J13" t="n">
+        <v>217</v>
+      </c>
+      <c r="K13" t="n">
+        <v>113.2912422688384</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3883976959.169491</v>
+        <v>2492377678.018914</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1225266172938551</v>
+        <v>0.1607513837426342</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04239218460213629</v>
+        <v>0.0267333671230399</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>42</v>
+      </c>
+      <c r="J14" t="n">
+        <v>212</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1799121197.542443</v>
+        <v>1423894268.04622</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07462530804252698</v>
+        <v>0.08934725053355597</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03301253727762391</v>
+        <v>0.03347580591264708</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2285653962.829399</v>
+        <v>2289392248.01819</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1134236857109624</v>
+        <v>0.08998215975936501</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04207367063756073</v>
+        <v>0.0511052586987083</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3934960760.67232</v>
+        <v>3705702518.720431</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1531426321466245</v>
+        <v>0.1494614166385095</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0429948549442583</v>
+        <v>0.04647782251819686</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>105</v>
+      </c>
+      <c r="J17" t="n">
+        <v>217</v>
+      </c>
+      <c r="K17" t="n">
+        <v>88.87261844468088</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1063,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3030275954.93765</v>
+        <v>3855747116.167901</v>
       </c>
       <c r="F18" t="n">
-        <v>0.165431246965331</v>
+        <v>0.1763683546211812</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03403616921373662</v>
+        <v>0.03434276272376207</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>57</v>
+      </c>
+      <c r="J18" t="n">
+        <v>217</v>
+      </c>
+      <c r="K18" t="n">
+        <v>105.6663247618245</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1121724554.01636</v>
+        <v>919735735.4410805</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1885426714493234</v>
+        <v>0.1395248311601446</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01829623799726346</v>
+        <v>0.01811092842803162</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1141,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2603914250.802059</v>
+        <v>2549121684.779934</v>
       </c>
       <c r="F20" t="n">
-        <v>0.149184659057946</v>
+        <v>0.1224039074578503</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02271784377442126</v>
+        <v>0.02683289552158152</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1176,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2543389937.34991</v>
+        <v>1679489784.892797</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06953318734341743</v>
+        <v>0.07876725191632045</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03429281893668532</v>
+        <v>0.03893687280035821</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3084932305.844774</v>
+        <v>4046301771.164443</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09579749959838667</v>
+        <v>0.1328720319504568</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05330298104382688</v>
+        <v>0.04123828390149817</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>55</v>
+      </c>
+      <c r="J22" t="n">
+        <v>218</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1246,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1506749529.156195</v>
+        <v>1395643255.596318</v>
       </c>
       <c r="F23" t="n">
-        <v>0.122271169521357</v>
+        <v>0.1570631779126223</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0420177778833447</v>
+        <v>0.05122869752685317</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3307823953.248324</v>
+        <v>3760709951.115735</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1217996950422289</v>
+        <v>0.1416876643962829</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03749582440814502</v>
+        <v>0.03084236314216634</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>68</v>
+      </c>
+      <c r="J24" t="n">
+        <v>218</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>976182297.6495751</v>
+        <v>1136976543.629554</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08116685451194149</v>
+        <v>0.08940729106375654</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03052861928676624</v>
+        <v>0.0252344155714618</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1372006664.509306</v>
+        <v>1089533086.913876</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1112536080310895</v>
+        <v>0.1172913390797707</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03240629288277199</v>
+        <v>0.02463938833965847</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3674368620.842218</v>
+        <v>4480587208.589919</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1031218117129661</v>
+        <v>0.1018175355974587</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01926189718697019</v>
+        <v>0.02163353957287055</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>86</v>
+      </c>
+      <c r="J27" t="n">
+        <v>218</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3665630395.468408</v>
+        <v>3869113479.035666</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1376276115790363</v>
+        <v>0.1320163773596877</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04892919269418306</v>
+        <v>0.03669728496714159</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>44</v>
+      </c>
+      <c r="J28" t="n">
+        <v>218</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5330379559.488523</v>
+        <v>5505919813.001235</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09322558031279995</v>
+        <v>0.1029814266597041</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0280794147246929</v>
+        <v>0.03592603704014453</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>207</v>
+      </c>
+      <c r="J29" t="n">
+        <v>218</v>
+      </c>
+      <c r="K29" t="n">
+        <v>125.4982631956083</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1520697003.92097</v>
+        <v>1769815630.977169</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1061022040753242</v>
+        <v>0.1048436891866509</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02709189613929535</v>
+        <v>0.03798797407572449</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1131959049.532604</v>
+        <v>1107273662.854294</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1053610151209657</v>
+        <v>0.09310140082082211</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03898918962273899</v>
+        <v>0.04789039980038821</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1335076383.032628</v>
+        <v>1259763076.37402</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09023521060273518</v>
+        <v>0.08161675975890376</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03514856759122027</v>
+        <v>0.03359014267935865</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2858709801.388745</v>
+        <v>3115589034.308035</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1922167395404343</v>
+        <v>0.1860237730282031</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04354621300451552</v>
+        <v>0.05655692041558468</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1633,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1296361958.77562</v>
+        <v>1283921346.742602</v>
       </c>
       <c r="F34" t="n">
-        <v>0.112665942856618</v>
+        <v>0.113623276845017</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0258896115648484</v>
+        <v>0.02721261409178434</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>977226347.9842087</v>
+        <v>1176924440.855456</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09179577755750798</v>
+        <v>0.0937994098729195</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02855027497536229</v>
+        <v>0.03828609992199189</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2236170004.113914</v>
+        <v>2409624670.667293</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1313350425792347</v>
+        <v>0.1528798774709503</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02379242816902139</v>
+        <v>0.01948947603234974</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2530338545.502839</v>
+        <v>2627875359.644348</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08625972748532526</v>
+        <v>0.07767088192058801</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02874145899442724</v>
+        <v>0.02776873880454141</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1773,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1782780482.007204</v>
+        <v>1437647700.090841</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1175565433877077</v>
+        <v>0.09736783676633164</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03536059101068686</v>
+        <v>0.03243730800550885</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1933773927.063375</v>
+        <v>1972921807.970605</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1245668136920389</v>
+        <v>0.1845174024142318</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02235660594262539</v>
+        <v>0.03152130803649313</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1242858405.11536</v>
+        <v>1497089089.24994</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1479710741277125</v>
+        <v>0.1165740310802942</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05430998055803569</v>
+        <v>0.06010000053980159</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1878,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2349135866.631205</v>
+        <v>2300270921.972372</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1123271255253935</v>
+        <v>0.1168666685232224</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04425896923894845</v>
+        <v>0.03781750549066451</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3868973424.34796</v>
+        <v>3716219638.627443</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1199836915188592</v>
+        <v>0.1250549599727305</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03596891911277435</v>
+        <v>0.02807921209269252</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>86</v>
+      </c>
+      <c r="J42" t="n">
+        <v>218</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1948,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2368868372.251663</v>
+        <v>2447724065.084458</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1595756780723715</v>
+        <v>0.1325918766081092</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02452414975456986</v>
+        <v>0.02449960044448529</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2037473422.881798</v>
+        <v>2043151179.423311</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09528021612439559</v>
+        <v>0.08017013995173959</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03335578727542091</v>
+        <v>0.02514018831491494</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1850377570.393258</v>
+        <v>1716076342.16095</v>
       </c>
       <c r="F45" t="n">
-        <v>0.12384171784373</v>
+        <v>0.1946983974534316</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03489055807232583</v>
+        <v>0.04500605761911375</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2047,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3642513709.163893</v>
+        <v>5716567171.716069</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1605210273536396</v>
+        <v>0.1257866786511916</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0435385142535516</v>
+        <v>0.03860594466957078</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>124</v>
+      </c>
+      <c r="J46" t="n">
+        <v>218</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2082,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3690118469.926327</v>
+        <v>3613183660.479626</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1478044836530732</v>
+        <v>0.1999105165582547</v>
       </c>
       <c r="G47" t="n">
-        <v>0.041192937803366</v>
+        <v>0.04535801226934865</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>98</v>
+      </c>
+      <c r="J47" t="n">
+        <v>217</v>
+      </c>
+      <c r="K47" t="n">
+        <v>76.28511056547696</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4107363113.754759</v>
+        <v>3648989195.952636</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08448422162788309</v>
+        <v>0.07066501178819225</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02967967865171307</v>
+        <v>0.03770249062813762</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>108</v>
+      </c>
+      <c r="J48" t="n">
+        <v>217</v>
+      </c>
+      <c r="K48" t="n">
+        <v>97.83990085278539</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1820113427.671748</v>
+        <v>1920566740.704446</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1859353618469751</v>
+        <v>0.1383845457497949</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04097203228085605</v>
+        <v>0.03873277862165232</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2191,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3888865355.071373</v>
+        <v>3827425953.225865</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1303484509947368</v>
+        <v>0.1718942151781961</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03869917485180031</v>
+        <v>0.03230375763916038</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>70</v>
+      </c>
+      <c r="J50" t="n">
+        <v>217</v>
+      </c>
+      <c r="K50" t="n">
+        <v>105.164262299789</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1377823432.06196</v>
+        <v>1135455632.395617</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1885191326980812</v>
+        <v>0.1566021052964474</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03327789204511339</v>
+        <v>0.03855160859575042</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2269,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5257343145.593258</v>
+        <v>4129666704.211955</v>
       </c>
       <c r="F52" t="n">
-        <v>0.111117956593793</v>
+        <v>0.1141066234661709</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05532068041174001</v>
+        <v>0.05882620291839916</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>146</v>
+      </c>
+      <c r="J52" t="n">
+        <v>218</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,22 +2298,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2598280318.719785</v>
+        <v>3687562854.599618</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1749666181555928</v>
+        <v>0.1242760777278437</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03050588813442164</v>
+        <v>0.03193569092296014</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>29</v>
+      </c>
+      <c r="J53" t="n">
+        <v>217</v>
+      </c>
+      <c r="K53" t="n">
+        <v>92.13847624348942</v>
       </c>
     </row>
     <row r="54">
@@ -1936,23 +2335,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4303098949.111687</v>
+        <v>4645043460.135225</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1070394258208682</v>
+        <v>0.1057756979295827</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04496402037493036</v>
+        <v>0.04866607172219872</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>115</v>
+      </c>
+      <c r="J54" t="n">
+        <v>218</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3926722243.481421</v>
+        <v>4530249961.642956</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2119098291134008</v>
+        <v>0.2104700856535559</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02394128109793907</v>
+        <v>0.03242161212384457</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>98</v>
+      </c>
+      <c r="J55" t="n">
+        <v>217</v>
+      </c>
+      <c r="K55" t="n">
+        <v>109.9796954387008</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2413,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1734127422.601791</v>
+        <v>1208838261.749785</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1381638682549589</v>
+        <v>0.1386276096803864</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04896318670864715</v>
+        <v>0.04219858690295122</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2448,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3030039358.430894</v>
+        <v>3293137591.26963</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1117022443229957</v>
+        <v>0.1582877068191248</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02577170532707086</v>
+        <v>0.02639464133686978</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>85</v>
+      </c>
+      <c r="J57" t="n">
+        <v>216</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1446234899.807268</v>
+        <v>1695813521.391603</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1523812384540429</v>
+        <v>0.1552355331248207</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03979246987110202</v>
+        <v>0.03110988163935874</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3436445079.014428</v>
+        <v>3673358859.739586</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08731675701584081</v>
+        <v>0.1037783935133911</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0476618746460902</v>
+        <v>0.03671883903311161</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>105</v>
+      </c>
+      <c r="J59" t="n">
+        <v>218</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,22 +2547,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2813979609.276036</v>
+        <v>3110027573.142946</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1647858160576136</v>
+        <v>0.1700293006397886</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02100685888543522</v>
+        <v>0.02355841878372629</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>31</v>
+      </c>
+      <c r="J60" t="n">
+        <v>217</v>
+      </c>
+      <c r="K60" t="n">
+        <v>72.51519908710482</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3263004741.136213</v>
+        <v>3170166436.328588</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1586030606956355</v>
+        <v>0.1403653133227537</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02821218661005829</v>
+        <v>0.02752915521387286</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1396813207.139451</v>
+        <v>1713640902.820458</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1684778122668685</v>
+        <v>0.1765823096647946</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0466453039298076</v>
+        <v>0.04050260971578851</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2654,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5251175149.445572</v>
+        <v>3423671257.70662</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07140155671756809</v>
+        <v>0.09291690694817457</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04159665827266552</v>
+        <v>0.03519809984123577</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>106</v>
+      </c>
+      <c r="J63" t="n">
+        <v>216</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4736551746.47202</v>
+        <v>4478705671.734473</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1283973956398376</v>
+        <v>0.1228388681001698</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02553444926827603</v>
+        <v>0.02237174105960268</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>107</v>
+      </c>
+      <c r="J64" t="n">
+        <v>218</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4277104057.360702</v>
+        <v>5255204726.6049</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1546060243576591</v>
+        <v>0.1200659672395253</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02252207440692728</v>
+        <v>0.03178734726402872</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>174</v>
+      </c>
+      <c r="J65" t="n">
+        <v>217</v>
+      </c>
+      <c r="K65" t="n">
+        <v>115.9314855537155</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5291375987.390259</v>
+        <v>5263909856.948666</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1540846702198792</v>
+        <v>0.1089031983437055</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04113090483887284</v>
+        <v>0.03559653845026391</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>107</v>
+      </c>
+      <c r="J66" t="n">
+        <v>218</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2773536111.492911</v>
+        <v>3035551879.90222</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08262305809952022</v>
+        <v>0.07056917177472075</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04877372620360944</v>
+        <v>0.03213119365655805</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>3</v>
+      </c>
+      <c r="J67" t="n">
+        <v>211</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3932876956.26923</v>
+        <v>5662805304.691871</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1253593317545562</v>
+        <v>0.1551797279249285</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04060371655184621</v>
+        <v>0.03951875905279603</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>110</v>
+      </c>
+      <c r="J68" t="n">
+        <v>217</v>
+      </c>
+      <c r="K68" t="n">
+        <v>111.626340386747</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2160009571.529127</v>
+        <v>1729624907.608776</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1334232863827527</v>
+        <v>0.1466168072490992</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04165566386434148</v>
+        <v>0.03979165097476325</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2909,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3251828083.94102</v>
+        <v>3573793574.395399</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09700386894364774</v>
+        <v>0.07140285916607025</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04242387646706331</v>
+        <v>0.04470760061059894</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>32</v>
+      </c>
+      <c r="J70" t="n">
+        <v>206</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4414153452.640269</v>
+        <v>4920282618.339293</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1555729338125965</v>
+        <v>0.13383067480703</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03000523138954173</v>
+        <v>0.02521158527690885</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>166</v>
+      </c>
+      <c r="J71" t="n">
+        <v>218</v>
+      </c>
+      <c r="K71" t="n">
+        <v>116.1338807854751</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1781107728.914717</v>
+        <v>1837896501.477317</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08240066877629891</v>
+        <v>0.08070959243543759</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03228274603315968</v>
+        <v>0.03861042526039149</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2880066701.748721</v>
+        <v>3067811258.203595</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1043038014268239</v>
+        <v>0.0731222883990469</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03569951052579155</v>
+        <v>0.05067051763852153</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>12</v>
+      </c>
+      <c r="J73" t="n">
+        <v>208</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3045,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2578769640.337469</v>
+        <v>4017362734.341762</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1223637169088031</v>
+        <v>0.1796041846696436</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02719157825305096</v>
+        <v>0.02460228073619246</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>63</v>
+      </c>
+      <c r="J74" t="n">
+        <v>218</v>
+      </c>
+      <c r="K74" t="n">
+        <v>119.8102515425452</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1836164840.229005</v>
+        <v>1762347140.586985</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1105933977576704</v>
+        <v>0.1392096665928003</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03352209071033392</v>
+        <v>0.03381652600671133</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5336423008.661188</v>
+        <v>4224427176.432512</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07762807432638569</v>
+        <v>0.1088438188944913</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03042398224118971</v>
+        <v>0.03206004619362768</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>100</v>
+      </c>
+      <c r="J76" t="n">
+        <v>218</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2031406428.847556</v>
+        <v>1932836293.547285</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1615078823377379</v>
+        <v>0.1128220469416193</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02475222554815582</v>
+        <v>0.02899323717608356</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3925038736.632486</v>
+        <v>4015029419.40796</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09565624221305691</v>
+        <v>0.1103032128116931</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05130643619400312</v>
+        <v>0.05447231000426318</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>109</v>
+      </c>
+      <c r="J78" t="n">
+        <v>217</v>
+      </c>
+      <c r="K78" t="n">
+        <v>115.6916063497157</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1571921938.118647</v>
+        <v>1306298773.809524</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1630194365847089</v>
+        <v>0.112679987033712</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03735139340761939</v>
+        <v>0.0334045915312338</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3259,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5618148070.97712</v>
+        <v>3683855141.086344</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08329238934785439</v>
+        <v>0.1031584129619607</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03525447544224992</v>
+        <v>0.03190033130642903</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>106</v>
+      </c>
+      <c r="J80" t="n">
+        <v>217</v>
+      </c>
+      <c r="K80" t="n">
+        <v>71.07208873004672</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3296,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5166278306.419083</v>
+        <v>3308564657.047543</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1358830459172479</v>
+        <v>0.09032743481169775</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02666007899864184</v>
+        <v>0.02848294324828123</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
+      <c r="I81" t="n">
+        <v>100</v>
+      </c>
+      <c r="J81" t="n">
+        <v>216</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4438578266.194613</v>
+        <v>4556923659.664986</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2071942869397209</v>
+        <v>0.1438733939958949</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01921524227177456</v>
+        <v>0.01986993372342507</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>162</v>
+      </c>
+      <c r="J82" t="n">
+        <v>218</v>
+      </c>
+      <c r="K82" t="n">
+        <v>118.3018076222512</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3374,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2276458521.113713</v>
+        <v>2493701839.934577</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1355989918931384</v>
+        <v>0.114287706888847</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03693111355022013</v>
+        <v>0.03536868585005744</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2566673807.304679</v>
+        <v>2309383883.807912</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09848727051820573</v>
+        <v>0.1207669453100838</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05084592308301843</v>
+        <v>0.04863687071390695</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3444,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3012111729.099172</v>
+        <v>2994599762.498605</v>
       </c>
       <c r="F85" t="n">
-        <v>0.13644792010141</v>
+        <v>0.1429537862984669</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04343983906192404</v>
+        <v>0.0387137585998142</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>30</v>
+      </c>
+      <c r="J85" t="n">
+        <v>205</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2476739844.049772</v>
+        <v>1991060053.196276</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1196415172569799</v>
+        <v>0.1333338543711624</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01679935982282073</v>
+        <v>0.02023912073404536</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3514,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1446208878.037724</v>
+        <v>914021821.2661192</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1361684071040311</v>
+        <v>0.149876865518121</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03946892192351913</v>
+        <v>0.02929024789196122</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3111967476.105552</v>
+        <v>2850717883.896797</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1625464350273374</v>
+        <v>0.1360725609299233</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03328550243896178</v>
+        <v>0.03668000777442038</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>31</v>
+      </c>
+      <c r="J88" t="n">
+        <v>214</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3584,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3181997282.148169</v>
+        <v>3214028202.876129</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1126563127992694</v>
+        <v>0.1013046204475433</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03369381480110414</v>
+        <v>0.03822366366918444</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>15</v>
+      </c>
+      <c r="J89" t="n">
+        <v>214</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1627507875.962681</v>
+        <v>2097017766.0466</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0968968990842551</v>
+        <v>0.127058075720758</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05288823017974876</v>
+        <v>0.0517105197117694</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3654,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1947232876.636108</v>
+        <v>1467960335.576872</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1335130670995642</v>
+        <v>0.19520619661752</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05883262363062944</v>
+        <v>0.05657420811162206</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3689,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2308531075.741035</v>
+        <v>2187342562.113318</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07448758769196925</v>
+        <v>0.1041011072058651</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03652350771316903</v>
+        <v>0.03239531430006283</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5009747647.942678</v>
+        <v>4797413738.883997</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1399989466835516</v>
+        <v>0.1403095916798412</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04951740714450484</v>
+        <v>0.04598973316253253</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>97</v>
+      </c>
+      <c r="J93" t="n">
+        <v>218</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3759,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2460233137.262817</v>
+        <v>1954954394.887893</v>
       </c>
       <c r="F94" t="n">
-        <v>0.158028734025892</v>
+        <v>0.16882366847859</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03415797228495426</v>
+        <v>0.03046630594452162</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3139122295.229239</v>
+        <v>2540338971.828251</v>
       </c>
       <c r="F95" t="n">
-        <v>0.105153117135083</v>
+        <v>0.08835743140295664</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03333372258000245</v>
+        <v>0.04506569935296721</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2131848724.245941</v>
+        <v>1728937010.255565</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09200191161150167</v>
+        <v>0.1153835311653828</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03526323995698843</v>
+        <v>0.03374488406473557</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3948954041.110113</v>
+        <v>5303214561.287868</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1293730665949988</v>
+        <v>0.1415187561705293</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01828774066280617</v>
+        <v>0.02541646609222964</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>105</v>
+      </c>
+      <c r="J97" t="n">
+        <v>218</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2760747533.996621</v>
+        <v>2534857369.376844</v>
       </c>
       <c r="F98" t="n">
-        <v>0.124919544654229</v>
+        <v>0.08500459972197949</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02065578590968448</v>
+        <v>0.02521117991142242</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>53</v>
+      </c>
+      <c r="J98" t="n">
+        <v>209</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2298735451.679694</v>
+        <v>3303618919.566269</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1312935287370875</v>
+        <v>0.1115362974688887</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02823261520567564</v>
+        <v>0.0317794750495933</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>211</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4474767047.497366</v>
+        <v>3265167025.603683</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1292405166272945</v>
+        <v>0.1173431517259882</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02119657964633232</v>
+        <v>0.0263220423462199</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>91</v>
+      </c>
+      <c r="J100" t="n">
+        <v>217</v>
+      </c>
+      <c r="K100" t="n">
+        <v>73.29326594759581</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3354032073.657456</v>
+        <v>2453580602.875319</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1489610443908219</v>
+        <v>0.1395900894416266</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05594384743892214</v>
+        <v>0.03946269422691531</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
